--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3595.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3595.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.821259971105015</v>
+        <v>1.206045389175415</v>
       </c>
       <c r="B1">
-        <v>4.197392592061982</v>
+        <v>3.714653491973877</v>
       </c>
       <c r="C1">
-        <v>3.842204737677175</v>
+        <v>4.291790008544922</v>
       </c>
       <c r="D1">
-        <v>1.13326171030223</v>
+        <v>1.802934288978577</v>
       </c>
       <c r="E1">
-        <v>0.7745563015698507</v>
+        <v>1.251164674758911</v>
       </c>
     </row>
   </sheetData>
